--- a/Code/text.xlsx
+++ b/Code/text.xlsx
@@ -118,7 +118,7 @@
     <t>ASD123456</t>
   </si>
   <si>
-    <t>20221206</t>
+    <t>20221207</t>
   </si>
   <si>
     <t>Manual</t>
